--- a/WebUI/Uploads/categories_base.xlsx
+++ b/WebUI/Uploads/categories_base.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="6660"/>
   </bookViews>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">article_all_1!$A$1:$E$307</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="1142">
   <si>
     <t>Итальянская коллекция</t>
   </si>
@@ -3437,6 +3437,12 @@
   </si>
   <si>
     <t>kerabud.jpg</t>
+  </si>
+  <si>
+    <t>Azori</t>
+  </si>
+  <si>
+    <t>Azori_Ctg.jpg</t>
   </si>
 </sst>
 </file>
@@ -3948,10 +3954,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4292,10 +4299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F308"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="H300" sqref="H300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10168,9 +10176,17 @@
         <v>1135</v>
       </c>
     </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1141</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E307"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>